--- a/Income/XOM_inc.xlsx
+++ b/Income/XOM_inc.xlsx
@@ -1984,10 +1984,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.1525</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.1804</v>
@@ -2113,10 +2111,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-0.1315</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-0.1556</v>
@@ -2242,10 +2238,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-0.1365</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-0.1621</v>
@@ -2371,10 +2365,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-0.1041</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-0.1259</v>
@@ -2500,10 +2492,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>-0.0147</v>
@@ -3520,10 +3510,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.0915</v>
@@ -3649,10 +3637,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.0823</v>
